--- a/RF_Test_data - LoS.xlsx
+++ b/RF_Test_data - LoS.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Line of sight" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Line of sight (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -49,25 +50,13 @@
     <t>Tx RSSI min</t>
   </si>
   <si>
-    <t xml:space="preserve"> average</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> max</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Rx_timeouts</t>
   </si>
   <si>
     <t>Rx RSSI min</t>
   </si>
   <si>
-    <t xml:space="preserve"> average2</t>
-  </si>
-  <si>
     <t>time ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> max2</t>
   </si>
   <si>
     <t>Column1</t>
@@ -77,6 +66,60 @@
   </si>
   <si>
     <t>Bitrate</t>
+  </si>
+  <si>
+    <t>by porch</t>
+  </si>
+  <si>
+    <t>same table</t>
+  </si>
+  <si>
+    <t>by tree</t>
+  </si>
+  <si>
+    <t>bambaa</t>
+  </si>
+  <si>
+    <t>big tree</t>
+  </si>
+  <si>
+    <t>end bamboo</t>
+  </si>
+  <si>
+    <t>end house</t>
+  </si>
+  <si>
+    <t>Tx  average</t>
+  </si>
+  <si>
+    <t>Tx  max</t>
+  </si>
+  <si>
+    <t>Rx average2</t>
+  </si>
+  <si>
+    <t>Rx max2</t>
+  </si>
+  <si>
+    <t>avrg tppacket</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1st attmpt</t>
+  </si>
+  <si>
+    <t>2 attmpt</t>
+  </si>
+  <si>
+    <t>3attmpt</t>
+  </si>
+  <si>
+    <t>4attmpt</t>
   </si>
 </sst>
 </file>
@@ -115,16 +158,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -141,10 +188,2480 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Line of sight'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Tx_timeouts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Line of sight'!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Line of sight'!$J$2:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A7D-4AAB-9E5B-499F0C4ED7F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Line of sight'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Rx_timeouts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Line of sight'!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Line of sight'!$N$2:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9A7D-4AAB-9E5B-499F0C4ED7F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Line of sight'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tx  average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Line of sight'!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Line of sight'!$L$2:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9A7D-4AAB-9E5B-499F0C4ED7F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Line of sight'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rx average2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Line of sight'!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Line of sight'!$P$2:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9A7D-4AAB-9E5B-499F0C4ED7F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="167358424"/>
+        <c:axId val="241197808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="167358424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="241197808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="241197808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="167358424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Line of sight (2)'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Tx_timeouts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Line of sight (2)'!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Line of sight (2)'!$J$2:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-893D-4D39-978E-F86B0F52228B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Line of sight (2)'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Rx_timeouts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Line of sight (2)'!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Line of sight (2)'!$N$2:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-893D-4D39-978E-F86B0F52228B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Line of sight (2)'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tx  average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Line of sight (2)'!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Line of sight (2)'!$L$2:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-893D-4D39-978E-F86B0F52228B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Line of sight (2)'!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rx average2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Line of sight (2)'!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Line of sight (2)'!$P$2:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-893D-4D39-978E-F86B0F52228B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="167358424"/>
+        <c:axId val="241197808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="167358424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="241197808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="241197808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="167358424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>695324</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S9" totalsRowShown="0">
-  <autoFilter ref="A1:S9"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:X9" totalsRowShown="0">
+  <autoFilter ref="A1:X9"/>
+  <tableColumns count="24">
     <tableColumn id="1" name="Date"/>
     <tableColumn id="2" name="time"/>
     <tableColumn id="12" name="Description"/>
@@ -156,16 +2673,57 @@
     <tableColumn id="7" name="test length"/>
     <tableColumn id="11" name=" Tx_timeouts"/>
     <tableColumn id="10" name="Tx RSSI min"/>
-    <tableColumn id="8" name=" average"/>
-    <tableColumn id="9" name=" max"/>
+    <tableColumn id="8" name="Tx  average"/>
+    <tableColumn id="9" name="Tx  max"/>
     <tableColumn id="13" name=" Rx_timeouts"/>
     <tableColumn id="14" name="Rx RSSI min"/>
-    <tableColumn id="15" name=" average2"/>
-    <tableColumn id="16" name=" max2"/>
+    <tableColumn id="15" name="Rx average2"/>
+    <tableColumn id="16" name="Rx max2"/>
     <tableColumn id="17" name="time ms"/>
-    <tableColumn id="18" name="Column1" dataDxfId="0">
+    <tableColumn id="18" name="avrg tppacket" dataDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[time ms]]/Table1[[#This Row],[test length]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="24" name="1st attmpt"/>
+    <tableColumn id="23" name="2 attmpt"/>
+    <tableColumn id="22" name="3attmpt"/>
+    <tableColumn id="21" name="4attmpt"/>
+    <tableColumn id="20" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:Y11" totalsRowShown="0">
+  <autoFilter ref="A1:Y11"/>
+  <tableColumns count="25">
+    <tableColumn id="1" name="Date"/>
+    <tableColumn id="2" name="time"/>
+    <tableColumn id="12" name="Description"/>
+    <tableColumn id="3" name="Loc. Master"/>
+    <tableColumn id="4" name="Loc. Slave"/>
+    <tableColumn id="19" name="Bitrate"/>
+    <tableColumn id="5" name="Distance [m]"/>
+    <tableColumn id="6" name="Conditions"/>
+    <tableColumn id="7" name="test length"/>
+    <tableColumn id="11" name=" Tx_timeouts"/>
+    <tableColumn id="10" name="Tx RSSI min"/>
+    <tableColumn id="8" name="Tx  average"/>
+    <tableColumn id="9" name="Tx  max"/>
+    <tableColumn id="13" name=" Rx_timeouts"/>
+    <tableColumn id="14" name="Rx RSSI min"/>
+    <tableColumn id="15" name="Rx average2"/>
+    <tableColumn id="16" name="Rx max2"/>
+    <tableColumn id="17" name="time ms"/>
+    <tableColumn id="18" name="avrg tppacket" dataDxfId="0">
+      <calculatedColumnFormula>Table13[[#This Row],[time ms]]/Table13[[#This Row],[test length]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="1st attmpt"/>
+    <tableColumn id="23" name="2 attmpt"/>
+    <tableColumn id="22" name="3attmpt"/>
+    <tableColumn id="21" name="4attmpt"/>
+    <tableColumn id="25" name="Column2"/>
+    <tableColumn id="20" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -468,10 +3026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,12 +3042,12 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -501,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -519,63 +3077,349 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>42627</v>
-      </c>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>400</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>-57</v>
+      </c>
+      <c r="L2">
+        <v>-54</v>
+      </c>
+      <c r="M2">
+        <v>-52</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>-56</v>
+      </c>
+      <c r="P2">
+        <v>-53</v>
+      </c>
+      <c r="Q2">
+        <v>-51</v>
+      </c>
+      <c r="R2">
+        <v>220926</v>
+      </c>
       <c r="S2" s="3"/>
+      <c r="T2">
+        <v>144</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42627</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>400</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>-88</v>
+      </c>
+      <c r="L3">
+        <v>-73</v>
+      </c>
+      <c r="M3">
+        <v>-70</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>-74</v>
+      </c>
+      <c r="P3">
+        <v>-72</v>
+      </c>
+      <c r="Q3">
+        <v>-68</v>
+      </c>
+      <c r="R3">
+        <v>187963</v>
+      </c>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>400</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>-73</v>
+      </c>
+      <c r="L4">
+        <v>-70</v>
+      </c>
+      <c r="M4">
+        <v>-68</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>-73</v>
+      </c>
+      <c r="P4">
+        <v>-69</v>
+      </c>
+      <c r="Q4">
+        <v>-68</v>
+      </c>
+      <c r="R4">
+        <v>254153</v>
+      </c>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>400</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>-75</v>
+      </c>
+      <c r="L5">
+        <v>-72</v>
+      </c>
+      <c r="M5">
+        <v>-71</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>-73</v>
+      </c>
+      <c r="P5">
+        <v>-71</v>
+      </c>
+      <c r="Q5">
+        <v>-70</v>
+      </c>
+      <c r="R5">
+        <v>287418</v>
+      </c>
       <c r="S5" s="3"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="S8" t="e">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6">
+        <v>400</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>-90</v>
+      </c>
+      <c r="L6">
+        <v>-80</v>
+      </c>
+      <c r="M6">
+        <v>-78</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>-89</v>
+      </c>
+      <c r="P6">
+        <v>-80</v>
+      </c>
+      <c r="Q6">
+        <v>-78</v>
+      </c>
+      <c r="R6">
+        <v>321856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>400</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>-85</v>
+      </c>
+      <c r="L7">
+        <v>-81</v>
+      </c>
+      <c r="M7">
+        <v>-76</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>-84</v>
+      </c>
+      <c r="P7">
+        <v>-80</v>
+      </c>
+      <c r="Q7">
+        <v>-76</v>
+      </c>
+      <c r="R7">
+        <v>359025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>400</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>-96</v>
+      </c>
+      <c r="L8">
+        <v>-84</v>
+      </c>
+      <c r="M8">
+        <v>-80</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>-95</v>
+      </c>
+      <c r="P8">
+        <v>-84</v>
+      </c>
+      <c r="Q8">
+        <v>-80</v>
+      </c>
+      <c r="R8">
+        <v>403372</v>
+      </c>
+      <c r="S8">
         <f>Table1[[#This Row],[time ms]]/Table1[[#This Row],[test length]]</f>
-        <v>#DIV/0!</v>
+        <v>1008.43</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="S9" t="e">
         <f>Table1[[#This Row],[time ms]]/Table1[[#This Row],[test length]]</f>
         <v>#DIV/0!</v>
@@ -583,13 +3427,514 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>400</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>-57</v>
+      </c>
+      <c r="L2">
+        <v>-54</v>
+      </c>
+      <c r="M2">
+        <v>-52</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>-56</v>
+      </c>
+      <c r="P2">
+        <v>-53</v>
+      </c>
+      <c r="Q2">
+        <v>-51</v>
+      </c>
+      <c r="R2">
+        <v>220926</v>
+      </c>
+      <c r="S2" s="3"/>
+      <c r="Y2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42627</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>400</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>-88</v>
+      </c>
+      <c r="L3">
+        <v>-73</v>
+      </c>
+      <c r="M3">
+        <v>-70</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>-74</v>
+      </c>
+      <c r="P3">
+        <v>-72</v>
+      </c>
+      <c r="Q3">
+        <v>-68</v>
+      </c>
+      <c r="R3">
+        <v>187963</v>
+      </c>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>400</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>-73</v>
+      </c>
+      <c r="L4">
+        <v>-70</v>
+      </c>
+      <c r="M4">
+        <v>-68</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>-73</v>
+      </c>
+      <c r="P4">
+        <v>-69</v>
+      </c>
+      <c r="Q4">
+        <v>-68</v>
+      </c>
+      <c r="R4">
+        <v>254153</v>
+      </c>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>400</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>-75</v>
+      </c>
+      <c r="L5">
+        <v>-72</v>
+      </c>
+      <c r="M5">
+        <v>-71</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>-73</v>
+      </c>
+      <c r="P5">
+        <v>-71</v>
+      </c>
+      <c r="Q5">
+        <v>-70</v>
+      </c>
+      <c r="R5">
+        <v>287418</v>
+      </c>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6">
+        <v>400</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>-90</v>
+      </c>
+      <c r="L6">
+        <v>-80</v>
+      </c>
+      <c r="M6">
+        <v>-78</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>-89</v>
+      </c>
+      <c r="P6">
+        <v>-80</v>
+      </c>
+      <c r="Q6">
+        <v>-78</v>
+      </c>
+      <c r="R6">
+        <v>321856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>400</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>-85</v>
+      </c>
+      <c r="L7">
+        <v>-81</v>
+      </c>
+      <c r="M7">
+        <v>-76</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>-84</v>
+      </c>
+      <c r="P7">
+        <v>-80</v>
+      </c>
+      <c r="Q7">
+        <v>-76</v>
+      </c>
+      <c r="R7">
+        <v>359025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
+        <v>400</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>-96</v>
+      </c>
+      <c r="L8">
+        <v>-84</v>
+      </c>
+      <c r="M8">
+        <v>-80</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>-95</v>
+      </c>
+      <c r="P8">
+        <v>-84</v>
+      </c>
+      <c r="Q8">
+        <v>-80</v>
+      </c>
+      <c r="R8">
+        <v>403372</v>
+      </c>
+      <c r="S8">
+        <f>Table13[[#This Row],[time ms]]/Table13[[#This Row],[test length]]</f>
+        <v>1008.43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>144</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>-67</v>
+      </c>
+      <c r="L9">
+        <v>-43</v>
+      </c>
+      <c r="M9">
+        <v>-33</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>-66</v>
+      </c>
+      <c r="P9">
+        <v>-42</v>
+      </c>
+      <c r="Q9">
+        <v>-33</v>
+      </c>
+      <c r="R9">
+        <v>32050</v>
+      </c>
+      <c r="S9">
+        <f>Table13[[#This Row],[time ms]]/Table13[[#This Row],[test length]]</f>
+        <v>222.56944444444446</v>
+      </c>
+      <c r="T9">
+        <v>118</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>400</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>-66</v>
+      </c>
+      <c r="L10">
+        <v>-61</v>
+      </c>
+      <c r="M10">
+        <v>-57</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>-65</v>
+      </c>
+      <c r="P10">
+        <v>-60</v>
+      </c>
+      <c r="Q10">
+        <v>-56</v>
+      </c>
+      <c r="R10">
+        <v>30096</v>
+      </c>
+      <c r="S10" s="4">
+        <f>Table13[[#This Row],[time ms]]/Table13[[#This Row],[test length]]</f>
+        <v>75.239999999999995</v>
+      </c>
+      <c r="T10">
+        <v>399</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" s="4" t="e">
+        <f>Table13[[#This Row],[time ms]]/Table13[[#This Row],[test length]]</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
